--- a/src/attributions/attributions_saliency_traj_182.xlsx
+++ b/src/attributions/attributions_saliency_traj_182.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0004383996711112559</v>
+        <v>4.144526428717654e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001587360166013241</v>
+        <v>4.932362207910046e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>1.030937892210204e-05</v>
+        <v>9.690566002973355e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>5.164463073015213e-05</v>
+        <v>8.084299770416692e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0009462556336075068</v>
+        <v>1.14667127490975e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003581186465453357</v>
+        <v>1.34490646814811e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005607649218291044</v>
+        <v>1.630315637157764e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001591779000591487</v>
+        <v>1.555245944473427e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001492088631493971</v>
+        <v>2.269688593514729e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004902485525235534</v>
+        <v>1.328576399828307e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>5.602263263426721e-05</v>
+        <v>4.921060826745816e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002353654708713293</v>
+        <v>1.723319883240038e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>8.318541949847713e-05</v>
+        <v>7.7106109529268e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0009856583783403039</v>
+        <v>2.392959686403628e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002224473428213969</v>
+        <v>4.64025761175435e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>6.857748667243868e-05</v>
+        <v>1.019044248096179e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.597997369477525e-05</v>
+        <v>2.295576268807054e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>7.012737478362396e-05</v>
+        <v>2.306529313500505e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001742067252052948</v>
+        <v>1.288300973101286e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>4.643465217668563e-06</v>
+        <v>1.611947482160758e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>9.577253513270989e-05</v>
+        <v>4.559598892228678e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0003528162487782538</v>
+        <v>3.037357600987889e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>8.804694516584277e-05</v>
+        <v>1.60008821694646e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000106642757600639</v>
+        <v>1.899886774481274e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.257538835692685e-05</v>
+        <v>1.897942638606764e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.733541441557463e-05</v>
+        <v>1.105013143387623e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.000207110817427747</v>
+        <v>1.797705408534966e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001564723206683993</v>
+        <v>2.087757275148761e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001092253951355815</v>
+        <v>1.9020135368919e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0001028291299007833</v>
+        <v>7.663576980121434e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0001103475879062898</v>
+        <v>1.384652114211349e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.53564779390581e-05</v>
+        <v>3.529350578901358e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.053875065641478e-05</v>
+        <v>8.296691703435499e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.889347135554999e-05</v>
+        <v>6.521265277115162e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.00010174501221627</v>
+        <v>4.050702955282759e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.000115911170723848</v>
+        <v>1.232795966643607e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.79798860498704e-05</v>
+        <v>1.459560007788241e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.475018962082686e-05</v>
+        <v>3.016890514118131e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0001615934015717357</v>
+        <v>2.899922037613578e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0001256299001397565</v>
+        <v>1.264731963601662e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.322585538029671e-05</v>
+        <v>4.924433483211033e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.910135173005983e-05</v>
+        <v>3.939886937587289e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.108281038701534e-05</v>
+        <v>4.315225851314608e-06</v>
       </c>
       <c r="AR2" t="n">
-        <v>9.044448233908042e-05</v>
+        <v>8.411585440626368e-06</v>
       </c>
       <c r="AS2" t="n">
-        <v>6.359880353556946e-05</v>
+        <v>5.770402367488714e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0001230417401529849</v>
+        <v>1.51209505929728e-05</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.903079257521313e-05</v>
+        <v>1.706058719719294e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.651543061598204e-05</v>
+        <v>1.839422793636913e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.023713750531897e-05</v>
+        <v>4.048286064062268e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0005083047435618937</v>
+        <v>1.99222267838195e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.161966014886275e-05</v>
+        <v>1.282660923607182e-05</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0001028120022965595</v>
+        <v>1.237140713783447e-05</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0001577624352648854</v>
+        <v>1.224663037646678e-08</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0003055604174733162</v>
+        <v>5.792065167042892e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0002694810973480344</v>
+        <v>2.683611455722712e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0001365191419608891</v>
+        <v>2.178236900363117e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.459940828382969e-05</v>
+        <v>5.664307991537498e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0001898077898658812</v>
+        <v>2.769484126474708e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0003346387529745698</v>
+        <v>2.879785824916326e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0002949043409898877</v>
+        <v>6.660578492301283e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>9.238137863576412e-06</v>
+        <v>4.058289960084949e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.000310573581373319</v>
+        <v>3.220113967472571e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>8.950223127612844e-05</v>
+        <v>4.022797838842962e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.11451952054631e-05</v>
+        <v>2.532953658374026e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0001159505336545408</v>
+        <v>3.248593930038624e-05</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.663243013666943e-05</v>
+        <v>1.975170675905247e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.954490577802062e-05</v>
+        <v>7.81621019996237e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0001075100954039954</v>
+        <v>6.226326831892948e-07</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0001523209648439661</v>
+        <v>9.244369039151934e-07</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0002817715867422521</v>
+        <v>3.909067345375661e-06</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0001229707122547552</v>
+        <v>2.533625320211286e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0001269638305529952</v>
+        <v>7.524651209678268e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001498711062595248</v>
+        <v>1.947992132045329e-05</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.43538488575723e-06</v>
+        <v>1.619713293621317e-05</v>
       </c>
       <c r="BW2" t="n">
-        <v>3.114409992122091e-07</v>
+        <v>4.336457095632795e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.615671398118138e-05</v>
+        <v>1.371795769955497e-05</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.000272676843451336</v>
+        <v>1.285807957174256e-05</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001410468539688736</v>
+        <v>6.754827154509258e-06</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0001663992588873953</v>
+        <v>7.83234372647712e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0001308245991822332</v>
+        <v>4.108485882170498e-06</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.626279769581743e-05</v>
+        <v>1.239958237420069e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>7.462174835382029e-05</v>
+        <v>1.314334622293245e-05</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.047473597282078e-05</v>
+        <v>3.416211484363885e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.100312485708855e-05</v>
+        <v>2.111685262207175e-06</v>
       </c>
       <c r="CG2" t="n">
-        <v>5.693131606676616e-05</v>
+        <v>2.015551035583485e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0001752479147398844</v>
+        <v>7.187169558164896e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>2.085004780383315e-05</v>
+        <v>8.709193934919313e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.000133875772007741</v>
+        <v>4.504111984715564e-06</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.000112849025754258</v>
+        <v>5.066362064098939e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.157743256248068e-05</v>
+        <v>1.889903842311469e-06</v>
       </c>
       <c r="CM2" t="n">
-        <v>7.052665750961751e-05</v>
+        <v>4.029480805911589e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>2.881979708035942e-05</v>
+        <v>9.687678357295226e-07</v>
       </c>
       <c r="CO2" t="n">
-        <v>2.16766020457726e-05</v>
+        <v>1.346961653325707e-08</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0002361499355174601</v>
+        <v>1.725843503663782e-05</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0001894410816021264</v>
+        <v>7.096211447787937e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.521039252518676e-05</v>
+        <v>7.551522003268474e-07</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.000176531175384298</v>
+        <v>2.78058632829925e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0003275964700151235</v>
+        <v>3.436020779190585e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>4.531732702162117e-05</v>
+        <v>2.066413435386494e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>4.307017661631107e-05</v>
+        <v>1.45327021527919e-05</v>
       </c>
       <c r="CW2" t="n">
-        <v>2.410096385574434e-06</v>
+        <v>5.448459887702484e-06</v>
       </c>
       <c r="CX2" t="n">
-        <v>6.282757567532826e-07</v>
+        <v>2.877914539567428e-06</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.159716248366749e-05</v>
+        <v>1.633995270822197e-05</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0001882516080513597</v>
+        <v>4.434848506207345e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>6.099879556131782e-06</v>
+        <v>1.280333071917994e-05</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0001283398451050743</v>
+        <v>2.333954853384057e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0001131046155933291</v>
+        <v>4.130546585656703e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>8.401150989811867e-05</v>
+        <v>2.198322590629687e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.000124800659250468</v>
+        <v>2.964437499031192e-06</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.000159910909133032</v>
+        <v>4.221648123348132e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>4.61795279989019e-05</v>
+        <v>2.650777059898246e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0001834683935157955</v>
+        <v>1.441438962501707e-05</v>
       </c>
       <c r="DI2" t="n">
-        <v>3.836147152469493e-05</v>
+        <v>1.859149779193103e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0001272682566195726</v>
+        <v>3.032801760127768e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0003575871232897043</v>
+        <v>3.796518285525963e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.356047116336413e-05</v>
+        <v>4.449846528586932e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>7.582337275380269e-05</v>
+        <v>1.838508978835307e-05</v>
       </c>
       <c r="DN2" t="n">
-        <v>5.351495929062366e-06</v>
+        <v>1.49933666762081e-05</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.000122802986879833</v>
+        <v>6.603197562071728e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>4.877772880718112e-05</v>
+        <v>2.295591548318043e-05</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001288723578909412</v>
+        <v>2.546479299780913e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.279394109587884e-05</v>
+        <v>3.776955054490827e-06</v>
       </c>
       <c r="DS2" t="n">
-        <v>3.848297274089418e-05</v>
+        <v>7.272838502103696e-06</v>
       </c>
       <c r="DT2" t="n">
-        <v>4.361802712082863e-05</v>
+        <v>4.087954948772676e-06</v>
       </c>
       <c r="DU2" t="n">
-        <v>3.696198837133124e-05</v>
+        <v>3.002888888659072e-06</v>
       </c>
       <c r="DV2" t="n">
-        <v>5.7944082072936e-05</v>
+        <v>7.720017492829356e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0001180156468763016</v>
+        <v>2.074707845167723e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>9.463699825573713e-05</v>
+        <v>9.219939784088638e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>7.457597530446947e-05</v>
+        <v>8.793526831141207e-06</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0001284827303607017</v>
+        <v>1.212957067764364e-05</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0001518108620075509</v>
+        <v>6.278477485466283e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.368871653539827e-05</v>
+        <v>1.865035847004037e-05</v>
       </c>
       <c r="EC2" t="n">
-        <v>4.509949576458894e-05</v>
+        <v>1.005557078315178e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.441377207811456e-05</v>
+        <v>1.989250267797615e-05</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0002623826439958066</v>
+        <v>6.252369530557189e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0001799985184334219</v>
+        <v>7.993623967195163e-07</v>
       </c>
       <c r="EG2" t="n">
-        <v>4.121355959796347e-05</v>
+        <v>2.607014039313071e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>3.757265949388966e-05</v>
+        <v>8.115849823298049e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>5.489442628459074e-05</v>
+        <v>3.74638766516e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0001791638642316684</v>
+        <v>6.782054697396234e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0001546710991533473</v>
+        <v>6.870845027151518e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>3.634380118455738e-05</v>
+        <v>7.919313702586805e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0001811681431718171</v>
+        <v>1.089604302251246e-05</v>
       </c>
       <c r="EN2" t="n">
-        <v>2.239911918877624e-05</v>
+        <v>4.321707820054144e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>4.022040957352147e-05</v>
+        <v>2.174809378630016e-05</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001245762250619009</v>
+        <v>7.927097840365604e-07</v>
       </c>
       <c r="EQ2" t="n">
-        <v>3.321203985251486e-05</v>
+        <v>1.698750929790549e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0001605052966624498</v>
+        <v>1.346261524304282e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>3.015964466612786e-05</v>
+        <v>1.537325374556531e-06</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.867958937713411e-05</v>
+        <v>2.401125857431907e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0001525247644167393</v>
+        <v>4.296253791835625e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0001413820427842438</v>
+        <v>1.12869120130199e-05</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.000273875572020188</v>
+        <v>7.411035767290741e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>5.497939127963036e-05</v>
+        <v>1.743296525091864e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.572183100506663e-05</v>
+        <v>4.817185526917456e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>5.244397016213043e-06</v>
+        <v>3.506627763272263e-06</v>
       </c>
       <c r="FA2" t="n">
-        <v>2.288812356709968e-05</v>
+        <v>1.920977229019627e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0002056329103652388</v>
+        <v>8.298122338601388e-06</v>
       </c>
       <c r="FC2" t="n">
-        <v>2.404514088993892e-05</v>
+        <v>8.69910218170844e-06</v>
       </c>
       <c r="FD2" t="n">
-        <v>7.200804975582287e-05</v>
+        <v>6.732640258633182e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0001090766891138628</v>
+        <v>1.953035052792984e-06</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.691110446699895e-05</v>
+        <v>7.325188107643044e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0001571695320308208</v>
+        <v>7.721186193521135e-06</v>
       </c>
       <c r="FH2" t="n">
-        <v>6.125280924607068e-05</v>
+        <v>2.389278597547673e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>2.633678923302796e-05</v>
+        <v>2.369913545408053e-06</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0001321410964010283</v>
+        <v>1.101532325264998e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>3.338157330290414e-05</v>
+        <v>1.169104052678449e-05</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0001845895167207345</v>
+        <v>3.35230333803338e-06</v>
       </c>
       <c r="FM2" t="n">
-        <v>3.012958040926605e-05</v>
+        <v>1.06162269730703e-05</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0002012871991610155</v>
+        <v>7.532275503763231e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0001806000655051321</v>
+        <v>3.640846671260078e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0001117248320952058</v>
+        <v>3.018453935510479e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0002339019993087277</v>
+        <v>2.356036748096813e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.000134815156343393</v>
+        <v>8.679212442075368e-07</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0005112636717967689</v>
+        <v>2.965669182231068e-06</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0002059224061667919</v>
+        <v>7.716420441283844e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.384989344747737e-05</v>
+        <v>8.487926606903784e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0001847631501732394</v>
+        <v>5.36091611138545e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0002091264323098585</v>
+        <v>2.613078504509758e-05</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0002089304471155629</v>
+        <v>7.268210538313724e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>3.007431951118633e-05</v>
+        <v>3.918037691619247e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>5.821323429699987e-05</v>
+        <v>3.702712774611427e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>5.176492049940862e-05</v>
+        <v>3.205542816431262e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>4.510409780777991e-05</v>
+        <v>2.598051196400775e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0001498523633927107</v>
+        <v>2.76481696346309e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0003630543942563236</v>
+        <v>1.670164601819124e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.099909422919154e-05</v>
+        <v>2.622579086164478e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0003540197794791311</v>
+        <v>1.55230300151743e-05</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0001753744872985408</v>
+        <v>1.650060403335374e-05</v>
       </c>
     </row>
     <row r="3">
